--- a/data/Clavijo_2017_Immune_SimBio.xlsx
+++ b/data/Clavijo_2017_Immune_SimBio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AC5856-5A1B-A444-9D40-B2BF2AB25D7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3B0487-83BA-0848-9570-09FD52016435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="460" windowWidth="25040" windowHeight="14500" xr2:uid="{3AF036C2-4BD8-8449-92D4-D7A9321898AD}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>Time</t>
   </si>
@@ -91,6 +93,9 @@
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <t>CD107a_Rel</t>
   </si>
 </sst>
 </file>
@@ -460,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA17291-808B-7B43-A8D8-2FF47B6841E7}">
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6:S12"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2:AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,7 +478,7 @@
     <col min="22" max="23" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,13 +567,19 @@
         <v>19</v>
       </c>
       <c r="AD1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -635,7 +646,7 @@
         <v>1.0444045736486873</v>
       </c>
       <c r="X2">
-        <f>F2/(100-F2)</f>
+        <f t="shared" ref="X2:X12" si="0">F2/(100-F2)</f>
         <v>2.6649617533557001E-2</v>
       </c>
       <c r="Z2">
@@ -643,17 +654,25 @@
         <v>2.6967520087972499E-2</v>
       </c>
       <c r="AB2">
-        <f t="shared" ref="AB2:AB12" si="0">J2/(100-J2)</f>
+        <f t="shared" ref="AB2:AB12" si="1">J2/(100-J2)</f>
         <v>2.913825179804971E-2</v>
       </c>
       <c r="AD2">
+        <f>D2/$D$5</f>
+        <v>4.3894728749948628</v>
+      </c>
+      <c r="AE2">
+        <f>E2/$D$5</f>
+        <v>0.4773119713713041</v>
+      </c>
+      <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20</v>
       </c>
@@ -720,7 +739,7 @@
         <v>0.11998387097787598</v>
       </c>
       <c r="X3">
-        <f>F3/(100-F3)</f>
+        <f t="shared" si="0"/>
         <v>1.4183014710590327E-2</v>
       </c>
       <c r="Z3">
@@ -728,17 +747,25 @@
         <v>1.7054334233034176E-2</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14325067848526599</v>
       </c>
       <c r="AD3">
+        <f t="shared" ref="AD3:AD5" si="2">D3/$D$5</f>
+        <v>0.92049524483390832</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE5" si="3">E3/$D$5</f>
+        <v>0.16379539385587091</v>
+      </c>
+      <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30</v>
       </c>
@@ -805,7 +832,7 @@
         <v>0.12369650699525123</v>
       </c>
       <c r="X4">
-        <f>F4/(100-F4)</f>
+        <f t="shared" si="0"/>
         <v>8.5652503069346859E-3</v>
       </c>
       <c r="Z4">
@@ -813,17 +840,25 @@
         <v>8.5765415646142703E-3</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18656183176137761</v>
       </c>
       <c r="AD4">
+        <f t="shared" si="2"/>
+        <v>0.94584256338260253</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="3"/>
+        <v>0.17150270358547667</v>
+      </c>
+      <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>40</v>
       </c>
@@ -890,7 +925,7 @@
         <v>0.13171204394178931</v>
       </c>
       <c r="X5">
-        <f>F5/(100-F5)</f>
+        <f t="shared" si="0"/>
         <v>2.7770205372216763E-3</v>
       </c>
       <c r="Z5">
@@ -898,17 +933,25 @@
         <v>5.1651314930388137E-3</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15518441410771786</v>
       </c>
       <c r="AD5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="3"/>
+        <v>0.23784401497514687</v>
+      </c>
+      <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -939,25 +982,25 @@
         <v>4.7600511595449653E-2</v>
       </c>
       <c r="T6">
-        <f t="shared" ref="T6:T12" si="1">B6/(100-B6)</f>
+        <f t="shared" ref="T6:T12" si="4">B6/(100-B6)</f>
         <v>5.2327187160675998E-2</v>
       </c>
       <c r="X6">
-        <f>F6/(100-F6)</f>
+        <f t="shared" si="0"/>
         <v>9.1934809863510568E-3</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2206258012117933E-2</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -988,25 +1031,25 @@
         <v>0.11900127901525068</v>
       </c>
       <c r="T7">
+        <f t="shared" si="4"/>
+        <v>3.8210039605668156E-2</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>7.0892410340733705E-3</v>
+      </c>
+      <c r="AB7">
         <f t="shared" si="1"/>
-        <v>3.8210039605668156E-2</v>
-      </c>
-      <c r="X7">
-        <f>F7/(100-F7)</f>
-        <v>7.0892410340733705E-3</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="0"/>
         <v>4.5286849454789398E-2</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>15</v>
       </c>
@@ -1037,25 +1080,25 @@
         <v>0.13090140685287205</v>
       </c>
       <c r="T8">
+        <f t="shared" si="4"/>
+        <v>2.5746282295949909E-2</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>3.7406483795216989E-3</v>
+      </c>
+      <c r="AB8">
         <f t="shared" si="1"/>
-        <v>2.5746282295949909E-2</v>
-      </c>
-      <c r="X8">
-        <f>F8/(100-F8)</f>
-        <v>3.7406483795216989E-3</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="0"/>
         <v>9.363847633770099E-2</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>19</v>
       </c>
@@ -1086,25 +1129,25 @@
         <v>0.11900127901525068</v>
       </c>
       <c r="T9">
+        <f t="shared" si="4"/>
+        <v>2.5169798488772436E-2</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>2.0746887969403721E-3</v>
+      </c>
+      <c r="AB9">
         <f t="shared" si="1"/>
-        <v>2.5169798488772436E-2</v>
-      </c>
-      <c r="X9">
-        <f>F9/(100-F9)</f>
-        <v>2.0746887969403721E-3</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="0"/>
         <v>9.4776191913745936E-2</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AG9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>23</v>
       </c>
@@ -1135,25 +1178,25 @@
         <v>9.5201023190899306E-2</v>
       </c>
       <c r="T10">
+        <f t="shared" si="4"/>
+        <v>1.9508773494050075E-2</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>2.0746887969403721E-3</v>
+      </c>
+      <c r="AB10">
         <f t="shared" si="1"/>
-        <v>1.9508773494050075E-2</v>
-      </c>
-      <c r="X10">
-        <f>F10/(100-F10)</f>
-        <v>2.0746887969403721E-3</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="0"/>
         <v>0.10539103937106045</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AG10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>26</v>
       </c>
@@ -1184,25 +1227,25 @@
         <v>8.3300895289374219E-2</v>
       </c>
       <c r="T11">
+        <f t="shared" si="4"/>
+        <v>7.6926264033937014E-3</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>2.0746887969403721E-3</v>
+      </c>
+      <c r="AB11">
         <f t="shared" si="1"/>
-        <v>7.6926264033937014E-3</v>
-      </c>
-      <c r="X11">
-        <f>F11/(100-F11)</f>
-        <v>2.0746887969403721E-3</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="0"/>
         <v>0.11067296819847133</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AG11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>30</v>
       </c>
@@ -1233,21 +1276,21 @@
         <v>0.15470166263462093</v>
       </c>
       <c r="T12">
+        <f t="shared" si="4"/>
+        <v>7.3420384852769518E-3</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>3.1152647973952891E-3</v>
+      </c>
+      <c r="AB12">
         <f t="shared" si="1"/>
-        <v>7.3420384852769518E-3</v>
-      </c>
-      <c r="X12">
-        <f>F12/(100-F12)</f>
-        <v>3.1152647973952891E-3</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="0"/>
         <v>0.10362034491774194</v>
       </c>
-      <c r="AD12">
+      <c r="AF12">
         <v>0</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AG12" t="s">
         <v>8</v>
       </c>
     </row>
